--- a/profiles/import/3_Liegenschaft.xlsx
+++ b/profiles/import/3_Liegenschaft.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="327">
   <si>
     <t>OBJ_ID</t>
   </si>
@@ -47,10 +47,862 @@
     <t>VORGAENGER-ID</t>
   </si>
   <si>
-    <t>168195</t>
-  </si>
-  <si>
-    <t>Alte Poststraße 6 (Versuchsgut Rauischholzhausen)</t>
+    <t>167104</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 38</t>
+  </si>
+  <si>
+    <t>35394</t>
+  </si>
+  <si>
+    <t>Gießen</t>
+  </si>
+  <si>
+    <t>189854</t>
+  </si>
+  <si>
+    <t>167103</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 44</t>
+  </si>
+  <si>
+    <t>168017</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 56</t>
+  </si>
+  <si>
+    <t>189855</t>
+  </si>
+  <si>
+    <t>168013</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 58</t>
+  </si>
+  <si>
+    <t>167116</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 60/62</t>
+  </si>
+  <si>
+    <t>168230</t>
+  </si>
+  <si>
+    <t>Am Hoherodskopf 1 (Schotten)</t>
+  </si>
+  <si>
+    <t>63679</t>
+  </si>
+  <si>
+    <t>Schotten</t>
+  </si>
+  <si>
+    <t>189863</t>
+  </si>
+  <si>
+    <t>167127</t>
+  </si>
+  <si>
+    <t>Arndtstraße 2</t>
+  </si>
+  <si>
+    <t>35392</t>
+  </si>
+  <si>
+    <t>189859</t>
+  </si>
+  <si>
+    <t>167136</t>
+  </si>
+  <si>
+    <t>Aulweg 121</t>
+  </si>
+  <si>
+    <t>189860</t>
+  </si>
+  <si>
+    <t>167149</t>
+  </si>
+  <si>
+    <t>Aulweg 123</t>
+  </si>
+  <si>
+    <t>167158</t>
+  </si>
+  <si>
+    <t>Aulweg 128</t>
+  </si>
+  <si>
+    <t>167166</t>
+  </si>
+  <si>
+    <t>Aulweg 129</t>
+  </si>
+  <si>
+    <t>167175</t>
+  </si>
+  <si>
+    <t>Aulweg 130</t>
+  </si>
+  <si>
+    <t>512887</t>
+  </si>
+  <si>
+    <t>Aulweg 132</t>
+  </si>
+  <si>
+    <t>167181</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 16</t>
+  </si>
+  <si>
+    <t>35390</t>
+  </si>
+  <si>
+    <t>189852</t>
+  </si>
+  <si>
+    <t>167188</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 20</t>
+  </si>
+  <si>
+    <t>167196</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 22</t>
+  </si>
+  <si>
+    <t>167197</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 24</t>
+  </si>
+  <si>
+    <t>512889</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 24A</t>
+  </si>
+  <si>
+    <t>167210</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 37</t>
+  </si>
+  <si>
+    <t>168229</t>
+  </si>
+  <si>
+    <t>Feulgenstraße 10-12</t>
+  </si>
+  <si>
+    <t>167317</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 100</t>
+  </si>
+  <si>
+    <t>189861</t>
+  </si>
+  <si>
+    <t>167328</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 102</t>
+  </si>
+  <si>
+    <t>167339</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 104/106</t>
+  </si>
+  <si>
+    <t>167346</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 107</t>
+  </si>
+  <si>
+    <t>167357</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 108</t>
+  </si>
+  <si>
+    <t>167367</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 108A</t>
+  </si>
+  <si>
+    <t>167366</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 108B</t>
+  </si>
+  <si>
+    <t>167365</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 110</t>
+  </si>
+  <si>
+    <t>167377</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 112</t>
+  </si>
+  <si>
+    <t>167384</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 114</t>
+  </si>
+  <si>
+    <t>167401</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 120</t>
+  </si>
+  <si>
+    <t>167399</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 120A</t>
+  </si>
+  <si>
+    <t>167398</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 122</t>
+  </si>
+  <si>
+    <t>167400</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 122A</t>
+  </si>
+  <si>
+    <t>167402</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 124</t>
+  </si>
+  <si>
+    <t>167417</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 126</t>
+  </si>
+  <si>
+    <t>167434</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 128</t>
+  </si>
+  <si>
+    <t>167239</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 85</t>
+  </si>
+  <si>
+    <t>167240</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 87</t>
+  </si>
+  <si>
+    <t>167250</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 89</t>
+  </si>
+  <si>
+    <t>167262</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 89A</t>
+  </si>
+  <si>
+    <t>167261</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 91</t>
+  </si>
+  <si>
+    <t>167273</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 92</t>
+  </si>
+  <si>
+    <t>167281</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 93</t>
+  </si>
+  <si>
+    <t>167280</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 94</t>
+  </si>
+  <si>
+    <t>167293</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 95</t>
+  </si>
+  <si>
+    <t>167292</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 96</t>
+  </si>
+  <si>
+    <t>167307</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 98</t>
+  </si>
+  <si>
+    <t>167318</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 98A</t>
+  </si>
+  <si>
+    <t>167433</t>
+  </si>
+  <si>
+    <t>Friedrichstraße 24</t>
+  </si>
+  <si>
+    <t>167456</t>
+  </si>
+  <si>
+    <t>Gaffkystraße 11</t>
+  </si>
+  <si>
+    <t>167465</t>
+  </si>
+  <si>
+    <t>Goethestraße 55</t>
+  </si>
+  <si>
+    <t>167473</t>
+  </si>
+  <si>
+    <t>Goethestraße 58</t>
+  </si>
+  <si>
+    <t>167484</t>
+  </si>
+  <si>
+    <t>Gutenbergstraße 6</t>
+  </si>
+  <si>
+    <t>167483</t>
+  </si>
+  <si>
+    <t>Hein-Heckroth-Straße 3</t>
+  </si>
+  <si>
+    <t>167492</t>
+  </si>
+  <si>
+    <t>Hein-Heckroth-Straße 3A</t>
+  </si>
+  <si>
+    <t>167493</t>
+  </si>
+  <si>
+    <t>Hein-Heckroth-Straße 5</t>
+  </si>
+  <si>
+    <t>167494</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 14</t>
+  </si>
+  <si>
+    <t>167510</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 16</t>
+  </si>
+  <si>
+    <t>167524</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 17</t>
+  </si>
+  <si>
+    <t>167544</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 19</t>
+  </si>
+  <si>
+    <t>167550</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 20</t>
+  </si>
+  <si>
+    <t>167549</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 21</t>
+  </si>
+  <si>
+    <t>167560</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 25</t>
+  </si>
+  <si>
+    <t>167559</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 26</t>
+  </si>
+  <si>
+    <t>511867</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 28</t>
+  </si>
+  <si>
+    <t>167575</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 29</t>
+  </si>
+  <si>
+    <t>511868</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 30</t>
+  </si>
+  <si>
+    <t>511869</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 32</t>
+  </si>
+  <si>
+    <t>167574</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 33</t>
+  </si>
+  <si>
+    <t>528007</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 34</t>
+  </si>
+  <si>
+    <t>167583</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 35</t>
+  </si>
+  <si>
+    <t>167581</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 38</t>
+  </si>
+  <si>
+    <t>167598</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 44</t>
+  </si>
+  <si>
+    <t>167605</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 54</t>
+  </si>
+  <si>
+    <t>167606</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 58</t>
+  </si>
+  <si>
+    <t>167627</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 62</t>
+  </si>
+  <si>
+    <t>167638</t>
+  </si>
+  <si>
+    <t>Iheringstraße 6</t>
+  </si>
+  <si>
+    <t>167646</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21A</t>
+  </si>
+  <si>
+    <t>167650</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21B</t>
+  </si>
+  <si>
+    <t>167654</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21C</t>
+  </si>
+  <si>
+    <t>167662</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21D</t>
+  </si>
+  <si>
+    <t>167663</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21E</t>
+  </si>
+  <si>
+    <t>167670</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21F</t>
+  </si>
+  <si>
+    <t>167675</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21G</t>
+  </si>
+  <si>
+    <t>167681</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21H</t>
+  </si>
+  <si>
+    <t>167686</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21J</t>
+  </si>
+  <si>
+    <t>167688</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21L</t>
+  </si>
+  <si>
+    <t>167696</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21N</t>
+  </si>
+  <si>
+    <t>167637</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 5A</t>
+  </si>
+  <si>
+    <t>167698</t>
+  </si>
+  <si>
+    <t>Kerkrader Straße 7</t>
+  </si>
+  <si>
+    <t>189862</t>
+  </si>
+  <si>
+    <t>167699</t>
+  </si>
+  <si>
+    <t>Kerkrader Straße 9</t>
+  </si>
+  <si>
+    <t>167697</t>
+  </si>
+  <si>
+    <t>Klinikstraße 29</t>
+  </si>
+  <si>
+    <t>498921</t>
+  </si>
+  <si>
+    <t>Klinikstraße 36</t>
+  </si>
+  <si>
+    <t>167711</t>
+  </si>
+  <si>
+    <t>Kugelberg 58</t>
+  </si>
+  <si>
+    <t>189856</t>
+  </si>
+  <si>
+    <t>167712</t>
+  </si>
+  <si>
+    <t>Kugelberg 62</t>
+  </si>
+  <si>
+    <t>167728</t>
+  </si>
+  <si>
+    <t>Launsbacher Weg 31</t>
+  </si>
+  <si>
+    <t>35398</t>
+  </si>
+  <si>
+    <t>167749</t>
+  </si>
+  <si>
+    <t>Leihgesterner Weg 125</t>
+  </si>
+  <si>
+    <t>167765</t>
+  </si>
+  <si>
+    <t>Leihgesterner Weg 217</t>
+  </si>
+  <si>
+    <t>167748</t>
+  </si>
+  <si>
+    <t>Leihgesterner Weg 52</t>
+  </si>
+  <si>
+    <t>167794</t>
+  </si>
+  <si>
+    <t>Licher Straße 60</t>
+  </si>
+  <si>
+    <t>189857</t>
+  </si>
+  <si>
+    <t>167795</t>
+  </si>
+  <si>
+    <t>Licher Straße 62</t>
+  </si>
+  <si>
+    <t>167806</t>
+  </si>
+  <si>
+    <t>Licher Straße 64</t>
+  </si>
+  <si>
+    <t>167812</t>
+  </si>
+  <si>
+    <t>Licher Straße 66</t>
+  </si>
+  <si>
+    <t>167813</t>
+  </si>
+  <si>
+    <t>Licher Straße 68</t>
+  </si>
+  <si>
+    <t>167827</t>
+  </si>
+  <si>
+    <t>Licher Straße 70</t>
+  </si>
+  <si>
+    <t>167826</t>
+  </si>
+  <si>
+    <t>Licher Straße 72</t>
+  </si>
+  <si>
+    <t>167837</t>
+  </si>
+  <si>
+    <t>Licher Straße 74</t>
+  </si>
+  <si>
+    <t>167838</t>
+  </si>
+  <si>
+    <t>Licher Straße 76</t>
+  </si>
+  <si>
+    <t>507427</t>
+  </si>
+  <si>
+    <t>Licher Straße 76B</t>
+  </si>
+  <si>
+    <t>167856</t>
+  </si>
+  <si>
+    <t>Ludwigsplatz 13-15</t>
+  </si>
+  <si>
+    <t>167858</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 19</t>
+  </si>
+  <si>
+    <t>167872</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 21</t>
+  </si>
+  <si>
+    <t>167883</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 21A</t>
+  </si>
+  <si>
+    <t>167884</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 23</t>
+  </si>
+  <si>
+    <t>167903</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 34</t>
+  </si>
+  <si>
+    <t>167914</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 18</t>
+  </si>
+  <si>
+    <t>534710</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 21</t>
+  </si>
+  <si>
+    <t>534712</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 37</t>
+  </si>
+  <si>
+    <t>167915</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 53</t>
+  </si>
+  <si>
+    <t>534719</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 55</t>
+  </si>
+  <si>
+    <t>534720</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 57</t>
+  </si>
+  <si>
+    <t>534722</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 65</t>
+  </si>
+  <si>
+    <t>167955</t>
+  </si>
+  <si>
+    <t>Otto-Behaghel-Straße 10</t>
+  </si>
+  <si>
+    <t>206043</t>
+  </si>
+  <si>
+    <t>Otto-Behaghel-Straße 12</t>
+  </si>
+  <si>
+    <t>167935</t>
+  </si>
+  <si>
+    <t>Otto-Behaghel-Straße 8</t>
+  </si>
+  <si>
+    <t>167998</t>
+  </si>
+  <si>
+    <t>Rathenaustraße 8</t>
+  </si>
+  <si>
+    <t>168022</t>
+  </si>
+  <si>
+    <t>Rudolf-Buchheim-Straße 2</t>
+  </si>
+  <si>
+    <t>168030</t>
+  </si>
+  <si>
+    <t>Rudolf-Buchheim-Straße 6</t>
+  </si>
+  <si>
+    <t>168042</t>
+  </si>
+  <si>
+    <t>Schiffenberger Weg 115</t>
+  </si>
+  <si>
+    <t>168043</t>
+  </si>
+  <si>
+    <t>Schiffenberger Weg 335</t>
+  </si>
+  <si>
+    <t>168258</t>
+  </si>
+  <si>
+    <t>Schlangenzahl 14</t>
+  </si>
+  <si>
+    <t>168044</t>
+  </si>
+  <si>
+    <t>Schloßgasse 7</t>
+  </si>
+  <si>
+    <t>189853</t>
+  </si>
+  <si>
+    <t>168188</t>
+  </si>
+  <si>
+    <t>Schloßpark 1 (Schlossbereich Rauischholzhausen)</t>
   </si>
   <si>
     <t>35085</t>
@@ -59,1206 +911,12 @@
     <t>Ebsdorfergrund</t>
   </si>
   <si>
-    <t>189863</t>
-  </si>
-  <si>
-    <t>544590</t>
-  </si>
-  <si>
-    <t>Alte Poststraße 8 (Versuchsgut Rauischholzhausen)</t>
-  </si>
-  <si>
-    <t>167104</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 38</t>
-  </si>
-  <si>
-    <t>35394</t>
-  </si>
-  <si>
-    <t>Gießen</t>
-  </si>
-  <si>
-    <t>189854</t>
-  </si>
-  <si>
-    <t>167103</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 44</t>
-  </si>
-  <si>
-    <t>507121</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 46</t>
-  </si>
-  <si>
-    <t>168017</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 56</t>
-  </si>
-  <si>
-    <t>189855</t>
-  </si>
-  <si>
-    <t>168013</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 58</t>
-  </si>
-  <si>
-    <t>167116</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 60/62</t>
-  </si>
-  <si>
-    <t>507124</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 64</t>
-  </si>
-  <si>
-    <t>168230</t>
-  </si>
-  <si>
-    <t>Am Hoherodskopf 1 (Schotten)</t>
-  </si>
-  <si>
-    <t>63679</t>
-  </si>
-  <si>
-    <t>Schotten</t>
-  </si>
-  <si>
-    <t>168228</t>
-  </si>
-  <si>
-    <t>Am Kirschenberg 6 (Fernwald)</t>
-  </si>
-  <si>
-    <t>35463</t>
-  </si>
-  <si>
-    <t>Fernwald</t>
-  </si>
-  <si>
-    <t>520142</t>
-  </si>
-  <si>
-    <t>Am Steg 12</t>
-  </si>
-  <si>
-    <t>35392</t>
-  </si>
-  <si>
-    <t>189860</t>
-  </si>
-  <si>
-    <t>520143</t>
-  </si>
-  <si>
-    <t>Am Steg 14</t>
-  </si>
-  <si>
-    <t>520144</t>
-  </si>
-  <si>
-    <t>Am Steg 16</t>
-  </si>
-  <si>
-    <t>520145</t>
-  </si>
-  <si>
-    <t>Am Steg 18</t>
-  </si>
-  <si>
-    <t>520146</t>
-  </si>
-  <si>
-    <t>Am Steg 20</t>
-  </si>
-  <si>
-    <t>520147</t>
-  </si>
-  <si>
-    <t>Am Steg 22</t>
-  </si>
-  <si>
-    <t>520148</t>
-  </si>
-  <si>
-    <t>Am Steg 24</t>
-  </si>
-  <si>
-    <t>520149</t>
-  </si>
-  <si>
-    <t>Am Steg 26</t>
-  </si>
-  <si>
-    <t>520150</t>
-  </si>
-  <si>
-    <t>Am Steg 28</t>
-  </si>
-  <si>
-    <t>520151</t>
-  </si>
-  <si>
-    <t>Am Steg 30</t>
-  </si>
-  <si>
-    <t>520152</t>
-  </si>
-  <si>
-    <t>Am Steg 32</t>
-  </si>
-  <si>
-    <t>167127</t>
-  </si>
-  <si>
-    <t>Arndtstraße 2</t>
-  </si>
-  <si>
-    <t>189859</t>
-  </si>
-  <si>
-    <t>167136</t>
-  </si>
-  <si>
-    <t>Aulweg 121</t>
-  </si>
-  <si>
-    <t>167149</t>
-  </si>
-  <si>
-    <t>Aulweg 123</t>
-  </si>
-  <si>
-    <t>167158</t>
-  </si>
-  <si>
-    <t>Aulweg 128</t>
-  </si>
-  <si>
-    <t>167166</t>
-  </si>
-  <si>
-    <t>Aulweg 129</t>
-  </si>
-  <si>
-    <t>499801</t>
-  </si>
-  <si>
-    <t>Aulweg 129A</t>
-  </si>
-  <si>
-    <t>167175</t>
-  </si>
-  <si>
-    <t>Aulweg 130</t>
-  </si>
-  <si>
-    <t>512887</t>
-  </si>
-  <si>
-    <t>Aulweg 132</t>
-  </si>
-  <si>
-    <t>507222</t>
-  </si>
-  <si>
-    <t>Aulweg 134</t>
-  </si>
-  <si>
-    <t>167181</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 16</t>
-  </si>
-  <si>
-    <t>35390</t>
-  </si>
-  <si>
-    <t>189852</t>
-  </si>
-  <si>
-    <t>167188</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 20</t>
-  </si>
-  <si>
-    <t>167196</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 22</t>
-  </si>
-  <si>
-    <t>167197</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 24</t>
-  </si>
-  <si>
-    <t>512889</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 24A</t>
-  </si>
-  <si>
-    <t>167210</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 37</t>
-  </si>
-  <si>
-    <t>168229</t>
-  </si>
-  <si>
-    <t>Feulgenstraße 10-12</t>
-  </si>
-  <si>
-    <t>167317</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 100</t>
-  </si>
-  <si>
-    <t>189861</t>
-  </si>
-  <si>
-    <t>167328</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 102</t>
-  </si>
-  <si>
-    <t>167339</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 104/106</t>
-  </si>
-  <si>
-    <t>167334</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 105</t>
-  </si>
-  <si>
-    <t>167346</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 107</t>
-  </si>
-  <si>
-    <t>167357</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 108</t>
-  </si>
-  <si>
-    <t>167367</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 108A</t>
-  </si>
-  <si>
-    <t>167366</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 108B</t>
-  </si>
-  <si>
-    <t>167365</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 110</t>
-  </si>
-  <si>
-    <t>167377</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 112</t>
-  </si>
-  <si>
-    <t>167384</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 114</t>
-  </si>
-  <si>
-    <t>167401</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 120</t>
-  </si>
-  <si>
-    <t>167399</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 120A</t>
-  </si>
-  <si>
-    <t>167398</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 122</t>
-  </si>
-  <si>
-    <t>167400</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 122A</t>
-  </si>
-  <si>
-    <t>167402</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 124</t>
-  </si>
-  <si>
-    <t>167417</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 126</t>
-  </si>
-  <si>
-    <t>551563</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 126T</t>
-  </si>
-  <si>
-    <t>167434</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 128</t>
-  </si>
-  <si>
-    <t>167239</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 85</t>
-  </si>
-  <si>
-    <t>167240</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 87</t>
-  </si>
-  <si>
-    <t>167250</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 89</t>
-  </si>
-  <si>
-    <t>167262</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 89A</t>
-  </si>
-  <si>
-    <t>167261</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 91</t>
-  </si>
-  <si>
-    <t>167273</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 92</t>
-  </si>
-  <si>
-    <t>167281</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 93</t>
-  </si>
-  <si>
-    <t>167280</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 94</t>
-  </si>
-  <si>
-    <t>167293</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 95</t>
-  </si>
-  <si>
-    <t>167292</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 96</t>
-  </si>
-  <si>
-    <t>167307</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 98</t>
-  </si>
-  <si>
-    <t>167318</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 98A</t>
-  </si>
-  <si>
-    <t>167433</t>
-  </si>
-  <si>
-    <t>Friedrichstraße 24</t>
-  </si>
-  <si>
-    <t>167456</t>
-  </si>
-  <si>
-    <t>Gaffkystraße 11</t>
-  </si>
-  <si>
-    <t>512189</t>
-  </si>
-  <si>
-    <t>Gladbacherhof (Villmar)</t>
-  </si>
-  <si>
-    <t>65606</t>
-  </si>
-  <si>
-    <t>Villmar</t>
-  </si>
-  <si>
-    <t>167465</t>
-  </si>
-  <si>
-    <t>Goethestraße 55</t>
-  </si>
-  <si>
-    <t>167473</t>
-  </si>
-  <si>
-    <t>Goethestraße 58</t>
-  </si>
-  <si>
-    <t>511827</t>
-  </si>
-  <si>
-    <t>Goethestraße 58A</t>
-  </si>
-  <si>
-    <t>167484</t>
-  </si>
-  <si>
-    <t>Gutenbergstraße 6</t>
-  </si>
-  <si>
-    <t>167483</t>
-  </si>
-  <si>
-    <t>Hein-Heckroth-Straße 3</t>
-  </si>
-  <si>
-    <t>167492</t>
-  </si>
-  <si>
-    <t>Hein-Heckroth-Straße 3A</t>
-  </si>
-  <si>
-    <t>167493</t>
-  </si>
-  <si>
-    <t>Hein-Heckroth-Straße 5</t>
-  </si>
-  <si>
-    <t>167494</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 14</t>
-  </si>
-  <si>
-    <t>167510</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 16</t>
-  </si>
-  <si>
-    <t>167523</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 16A</t>
-  </si>
-  <si>
-    <t>167524</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 17</t>
-  </si>
-  <si>
-    <t>167544</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 19</t>
-  </si>
-  <si>
-    <t>167550</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 20</t>
-  </si>
-  <si>
-    <t>167549</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 21</t>
-  </si>
-  <si>
-    <t>167560</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 25</t>
-  </si>
-  <si>
-    <t>167559</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 26</t>
-  </si>
-  <si>
-    <t>511867</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 28</t>
-  </si>
-  <si>
-    <t>527867</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 28A</t>
-  </si>
-  <si>
-    <t>167575</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 29</t>
-  </si>
-  <si>
-    <t>511868</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 30</t>
-  </si>
-  <si>
-    <t>511869</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 32</t>
-  </si>
-  <si>
-    <t>167574</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 33</t>
-  </si>
-  <si>
-    <t>528007</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 34</t>
-  </si>
-  <si>
-    <t>167583</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 35</t>
-  </si>
-  <si>
-    <t>167582</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 37</t>
-  </si>
-  <si>
-    <t>167581</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 38</t>
-  </si>
-  <si>
-    <t>167598</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 44</t>
-  </si>
-  <si>
-    <t>498864</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 44A</t>
-  </si>
-  <si>
-    <t>167605</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 54</t>
-  </si>
-  <si>
-    <t>167606</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 58</t>
-  </si>
-  <si>
-    <t>167628</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 59</t>
-  </si>
-  <si>
-    <t>167627</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 62</t>
-  </si>
-  <si>
-    <t>167638</t>
-  </si>
-  <si>
-    <t>Iheringstraße 6</t>
-  </si>
-  <si>
-    <t>511967</t>
-  </si>
-  <si>
-    <t>Iheringstraße 6A</t>
-  </si>
-  <si>
-    <t>167646</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21A</t>
-  </si>
-  <si>
-    <t>167650</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21B</t>
-  </si>
-  <si>
-    <t>167654</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21C</t>
-  </si>
-  <si>
-    <t>167662</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21D</t>
-  </si>
-  <si>
-    <t>167663</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21E</t>
-  </si>
-  <si>
-    <t>167670</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21F</t>
-  </si>
-  <si>
-    <t>167675</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21G</t>
-  </si>
-  <si>
-    <t>167681</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21H</t>
-  </si>
-  <si>
-    <t>167686</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21J</t>
-  </si>
-  <si>
-    <t>167688</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21L</t>
-  </si>
-  <si>
-    <t>167687</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21M</t>
-  </si>
-  <si>
-    <t>167696</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21N</t>
-  </si>
-  <si>
-    <t>167637</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 5A</t>
-  </si>
-  <si>
-    <t>167698</t>
-  </si>
-  <si>
-    <t>Kerkrader Straße 7</t>
-  </si>
-  <si>
-    <t>189862</t>
-  </si>
-  <si>
-    <t>167699</t>
-  </si>
-  <si>
-    <t>Kerkrader Straße 9</t>
-  </si>
-  <si>
-    <t>167697</t>
-  </si>
-  <si>
-    <t>Klinikstraße 29</t>
-  </si>
-  <si>
-    <t>498921</t>
-  </si>
-  <si>
-    <t>Klinikstraße 36</t>
-  </si>
-  <si>
-    <t>167711</t>
-  </si>
-  <si>
-    <t>Kugelberg 58</t>
-  </si>
-  <si>
-    <t>189856</t>
-  </si>
-  <si>
-    <t>167712</t>
-  </si>
-  <si>
-    <t>Kugelberg 62</t>
-  </si>
-  <si>
-    <t>167728</t>
-  </si>
-  <si>
-    <t>Launsbacher Weg 31</t>
-  </si>
-  <si>
-    <t>35398</t>
-  </si>
-  <si>
-    <t>167749</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 125</t>
-  </si>
-  <si>
-    <t>167747</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 213</t>
-  </si>
-  <si>
-    <t>167765</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 217</t>
-  </si>
-  <si>
-    <t>167748</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 52</t>
-  </si>
-  <si>
-    <t>167794</t>
-  </si>
-  <si>
-    <t>Licher Straße 60</t>
-  </si>
-  <si>
-    <t>189857</t>
-  </si>
-  <si>
-    <t>167795</t>
-  </si>
-  <si>
-    <t>Licher Straße 62</t>
-  </si>
-  <si>
-    <t>167806</t>
-  </si>
-  <si>
-    <t>Licher Straße 64</t>
-  </si>
-  <si>
-    <t>167812</t>
-  </si>
-  <si>
-    <t>Licher Straße 66</t>
-  </si>
-  <si>
-    <t>167813</t>
-  </si>
-  <si>
-    <t>Licher Straße 68</t>
-  </si>
-  <si>
-    <t>167827</t>
-  </si>
-  <si>
-    <t>Licher Straße 70</t>
-  </si>
-  <si>
-    <t>167826</t>
-  </si>
-  <si>
-    <t>Licher Straße 72</t>
-  </si>
-  <si>
-    <t>167837</t>
-  </si>
-  <si>
-    <t>Licher Straße 74</t>
-  </si>
-  <si>
-    <t>167838</t>
-  </si>
-  <si>
-    <t>Licher Straße 76</t>
-  </si>
-  <si>
-    <t>167849</t>
-  </si>
-  <si>
-    <t>Licher Straße 76A</t>
-  </si>
-  <si>
-    <t>507427</t>
-  </si>
-  <si>
-    <t>Licher Straße 76B</t>
-  </si>
-  <si>
-    <t>167856</t>
-  </si>
-  <si>
-    <t>Ludwigsplatz 13-15</t>
-  </si>
-  <si>
-    <t>167858</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 19</t>
-  </si>
-  <si>
-    <t>167872</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 21</t>
-  </si>
-  <si>
-    <t>167883</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 21A</t>
-  </si>
-  <si>
-    <t>167884</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 23</t>
-  </si>
-  <si>
-    <t>167903</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 34</t>
-  </si>
-  <si>
-    <t>167913</t>
-  </si>
-  <si>
-    <t>Oberauweg</t>
-  </si>
-  <si>
-    <t>512987</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof</t>
-  </si>
-  <si>
-    <t>167914</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 18</t>
-  </si>
-  <si>
-    <t>534709</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 19</t>
-  </si>
-  <si>
-    <t>534710</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 21</t>
-  </si>
-  <si>
-    <t>167912</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 25</t>
-  </si>
-  <si>
-    <t>512988</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 27</t>
-  </si>
-  <si>
-    <t>539229</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 27A</t>
-  </si>
-  <si>
-    <t>167916</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 29</t>
-  </si>
-  <si>
-    <t>512990</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 31</t>
-  </si>
-  <si>
-    <t>512179</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 33</t>
-  </si>
-  <si>
-    <t>539231</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 33A</t>
-  </si>
-  <si>
-    <t>512180</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 35</t>
-  </si>
-  <si>
-    <t>539232</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 35A</t>
-  </si>
-  <si>
-    <t>534712</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 37</t>
-  </si>
-  <si>
-    <t>534713</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 39</t>
-  </si>
-  <si>
-    <t>534714</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 41</t>
-  </si>
-  <si>
-    <t>534715</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 43</t>
-  </si>
-  <si>
-    <t>534716</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 45</t>
-  </si>
-  <si>
-    <t>512989</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 47</t>
-  </si>
-  <si>
-    <t>534717</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 49</t>
-  </si>
-  <si>
-    <t>167915</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 53</t>
-  </si>
-  <si>
-    <t>534719</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 55</t>
-  </si>
-  <si>
-    <t>534720</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 57</t>
-  </si>
-  <si>
-    <t>534721</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 61</t>
-  </si>
-  <si>
-    <t>534722</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 65</t>
-  </si>
-  <si>
-    <t>167934</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 71</t>
-  </si>
-  <si>
-    <t>167955</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 10</t>
-  </si>
-  <si>
-    <t>206043</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 12</t>
-  </si>
-  <si>
-    <t>545299</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 23-29</t>
-  </si>
-  <si>
-    <t>167935</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 8</t>
-  </si>
-  <si>
-    <t>168197</t>
-  </si>
-  <si>
-    <t>Phytotron (Versuchsstation Rauischholzhausen)</t>
-  </si>
-  <si>
-    <t>167998</t>
-  </si>
-  <si>
-    <t>Rathenaustraße 8</t>
-  </si>
-  <si>
-    <t>168022</t>
-  </si>
-  <si>
-    <t>Rudolf-Buchheim-Straße 2</t>
-  </si>
-  <si>
-    <t>168031</t>
-  </si>
-  <si>
-    <t>Rudolf-Buchheim-Straße 4</t>
-  </si>
-  <si>
-    <t>168030</t>
-  </si>
-  <si>
-    <t>Rudolf-Buchheim-Straße 6</t>
-  </si>
-  <si>
-    <t>168042</t>
-  </si>
-  <si>
-    <t>Schiffenberger Weg 115</t>
-  </si>
-  <si>
-    <t>168043</t>
-  </si>
-  <si>
-    <t>Schiffenberger Weg 335</t>
-  </si>
-  <si>
-    <t>168258</t>
-  </si>
-  <si>
-    <t>Schlangenzahl 14</t>
-  </si>
-  <si>
-    <t>168044</t>
-  </si>
-  <si>
-    <t>Schloßgasse 7</t>
-  </si>
-  <si>
-    <t>189853</t>
-  </si>
-  <si>
-    <t>168188</t>
-  </si>
-  <si>
-    <t>Schloßpark 1 (Schlossbereich Rauischholzhausen)</t>
-  </si>
-  <si>
     <t>168057</t>
   </si>
   <si>
     <t>Schubertstraße 81</t>
   </si>
   <si>
-    <t>168072</t>
-  </si>
-  <si>
-    <t>Schwarzacker 60</t>
-  </si>
-  <si>
     <t>544268</t>
   </si>
   <si>
@@ -1277,18 +935,6 @@
     <t>Senckenbergstraße 17</t>
   </si>
   <si>
-    <t>168129</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 19</t>
-  </si>
-  <si>
-    <t>168128</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 21</t>
-  </si>
-  <si>
     <t>168074</t>
   </si>
   <si>
@@ -1307,18 +953,6 @@
     <t>Senckenbergstraße 6</t>
   </si>
   <si>
-    <t>486278</t>
-  </si>
-  <si>
-    <t>Steinweg (Versuchsstation Linden-Leihgestern)</t>
-  </si>
-  <si>
-    <t>35440</t>
-  </si>
-  <si>
-    <t>Linden-Leihgestern</t>
-  </si>
-  <si>
     <t>168134</t>
   </si>
   <si>
@@ -1341,12 +975,6 @@
   </si>
   <si>
     <t>Weilburger Grenze 25</t>
-  </si>
-  <si>
-    <t>520109</t>
-  </si>
-  <si>
-    <t>Weilburger Grenze 25A</t>
   </si>
   <si>
     <t>168148</t>
@@ -1709,16 +1337,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1757,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>7800</v>
+        <v>9950</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1777,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>7700</v>
+        <v>9900</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1791,73 +1419,73 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9950</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>9900</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9800</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9850</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1871,36 +1499,36 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>9900</v>
+        <v>9050</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9050</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9800</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,3996 +1539,3796 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8950</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
-        <v>3000</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>9600</v>
+        <v>8850</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>9550</v>
+        <v>8750</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
-        <v>9500</v>
+        <v>8650</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
-        <v>9450</v>
+        <v>8550</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
-        <v>9400</v>
+        <v>8500</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
-        <v>9350</v>
+        <v>8450</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
-        <v>9250</v>
+        <v>8350</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
-        <v>9200</v>
+        <v>8300</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
-        <v>9150</v>
+        <v>8300</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
-        <v>9100</v>
+        <v>8250</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2">
-        <v>9050</v>
+        <v>7600</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
-        <v>9000</v>
+        <v>7550</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2">
-        <v>8950</v>
+        <v>7450</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>8900</v>
+        <v>7400</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>8850</v>
+        <v>7350</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
-        <v>8800</v>
+        <v>7300</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2">
-        <v>8650</v>
+        <v>7200</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
-        <v>8600</v>
+        <v>7150</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
-        <v>8550</v>
+        <v>7150</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>8500</v>
+        <v>7100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>8450</v>
+        <v>7050</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2">
-        <v>8350</v>
+        <v>6950</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2">
-        <v>8300</v>
+        <v>6900</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2">
-        <v>8250</v>
+        <v>6850</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2">
-        <v>7600</v>
+        <v>6800</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
-        <v>7550</v>
+        <v>6800</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2">
-        <v>7450</v>
+        <v>6750</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2">
-        <v>7500</v>
+        <v>8200</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2">
-        <v>7400</v>
+        <v>8150</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>7350</v>
+        <v>8150</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2">
-        <v>7300</v>
+        <v>8100</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2">
-        <v>7250</v>
+        <v>8100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2">
-        <v>7200</v>
+        <v>8050</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2">
-        <v>7150</v>
+        <v>8000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2">
-        <v>7100</v>
+        <v>7950</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2">
-        <v>7050</v>
+        <v>7900</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2">
-        <v>7000</v>
+        <v>7850</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2">
-        <v>6950</v>
+        <v>7800</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
-        <v>6900</v>
+        <v>7800</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2">
-        <v>6850</v>
+        <v>7750</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2">
-        <v>6800</v>
+        <v>7700</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2">
-        <v>6780</v>
+        <v>7700</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2">
-        <v>6750</v>
+        <v>7650</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2">
-        <v>8200</v>
+        <v>6700</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2">
-        <v>8150</v>
+        <v>6650</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2">
-        <v>8100</v>
+        <v>6650</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2">
-        <v>8050</v>
+        <v>6550</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2">
-        <v>7950</v>
+        <v>6400</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2">
-        <v>7900</v>
+        <v>6350</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>7850</v>
+        <v>6300</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2">
-        <v>7800</v>
+        <v>6250</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2">
-        <v>7750</v>
+        <v>6200</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2">
-        <v>7700</v>
+        <v>6150</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2">
-        <v>7650</v>
+        <v>6050</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2">
-        <v>6700</v>
+        <v>6000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2">
-        <v>6650</v>
+        <v>5950</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2">
-        <v>4000</v>
+        <v>5900</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E74" s="2">
-        <v>6550</v>
+        <v>5850</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2">
-        <v>6450</v>
+        <v>5750</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2">
-        <v>6400</v>
+        <v>5650</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2">
-        <v>6350</v>
+        <v>5600</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2">
-        <v>6300</v>
+        <v>5550</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
-        <v>6200</v>
+        <v>5450</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
-        <v>6150</v>
+        <v>5450</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2">
-        <v>6050</v>
+        <v>5300</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
-        <v>5950</v>
+        <v>5150</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2">
-        <v>5850</v>
+        <v>5000</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2">
-        <v>5800</v>
+        <v>4950</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2">
-        <v>5750</v>
+        <v>4800</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2">
-        <v>5700</v>
+        <v>4750</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2">
-        <v>5650</v>
+        <v>4700</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2">
-        <v>5600</v>
+        <v>4650</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2">
-        <v>5550</v>
+        <v>4600</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2">
-        <v>5500</v>
+        <v>4550</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2">
-        <v>5450</v>
+        <v>4500</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2">
-        <v>5400</v>
+        <v>4450</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2">
-        <v>5350</v>
+        <v>4400</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2">
-        <v>5300</v>
+        <v>4350</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2">
-        <v>5200</v>
+        <v>4850</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E102" s="2">
-        <v>5150</v>
+        <v>4200</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2">
-        <v>5100</v>
+        <v>4150</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2">
-        <v>5050</v>
+        <v>4100</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2">
-        <v>5000</v>
+        <v>4050</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2">
-        <v>4950</v>
+        <v>4000</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2">
-        <v>4800</v>
+        <v>3950</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2">
-        <v>4750</v>
+        <v>3950</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E110" s="2">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2">
-        <v>4650</v>
+        <v>3950</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2">
-        <v>4600</v>
+        <v>3950</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2">
-        <v>4550</v>
+        <v>3950</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2">
-        <v>4500</v>
+        <v>3950</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2">
-        <v>4450</v>
+        <v>3950</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2">
-        <v>4400</v>
+        <v>3950</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2">
-        <v>4350</v>
+        <v>3900</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E118" s="2">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E119" s="2">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E120" s="2">
-        <v>4850</v>
+        <v>3800</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>265</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2">
-        <v>4150</v>
+        <v>3700</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>265</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E124" s="2">
-        <v>4050</v>
+        <v>3700</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2">
-        <v>4000</v>
+        <v>3850</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2">
-        <v>3950</v>
+        <v>3650</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E128" s="2">
-        <v>3800</v>
+        <v>3550</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2">
-        <v>3700</v>
+        <v>3450</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2">
-        <v>3850</v>
+        <v>3450</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2">
-        <v>3650</v>
+        <v>3400</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E133" s="2">
-        <v>3600</v>
+        <v>3350</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E134" s="2">
-        <v>3550</v>
+        <v>3300</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E135" s="2">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E136" s="2">
-        <v>3450</v>
+        <v>3150</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E137" s="2">
-        <v>3400</v>
+        <v>3150</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2">
-        <v>3350</v>
+        <v>3100</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E139" s="2">
-        <v>3300</v>
+        <v>3050</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E140" s="2">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E141" s="2">
-        <v>3200</v>
+        <v>2950</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E142" s="2">
-        <v>3150</v>
+        <v>2900</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E143" s="2">
-        <v>3100</v>
+        <v>2850</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E144" s="2">
-        <v>3050</v>
+        <v>2850</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E145" s="2">
-        <v>3000</v>
+        <v>2750</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E146" s="2">
-        <v>2950</v>
+        <v>2350</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E147" s="2">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E148" s="2">
-        <v>2850</v>
+        <v>1950</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E149" s="2">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E150" s="2">
-        <v>3000</v>
+        <v>1750</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E151" s="2">
-        <v>2850</v>
+        <v>2150</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E152" s="2">
-        <v>2800</v>
+        <v>2150</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E153" s="2">
-        <v>2750</v>
+        <v>2150</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E154" s="2">
-        <v>2650</v>
+        <v>2150</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E155" s="2">
-        <v>2600</v>
+        <v>2150</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E156" s="2">
-        <v>2590</v>
+        <v>2150</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E157" s="2">
-        <v>2550</v>
+        <v>2150</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E158" s="2">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E159" s="2">
-        <v>2450</v>
+        <v>2200</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2">
-        <v>2440</v>
+        <v>2000</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2">
-        <v>2390</v>
+        <v>1700</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E163" s="2">
-        <v>2350</v>
+        <v>1650</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E164" s="2">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E165" s="2">
-        <v>2250</v>
+        <v>1550</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E166" s="2">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="E167" s="2">
-        <v>2150</v>
+        <v>8000</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="E168" s="2">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="E169" s="2">
-        <v>2050</v>
+        <v>8000</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="E170" s="2">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="E171" s="2">
-        <v>1950</v>
+        <v>8000</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E172" s="2">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E173" s="2">
-        <v>1850</v>
+        <v>1000</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E174" s="2">
-        <v>1750</v>
+        <v>1300</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E175" s="2">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E176" s="2">
-        <v>2150</v>
+        <v>1250</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E177" s="2">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>381</v>
+        <v>306</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E178" s="2">
-        <v>2000</v>
+        <v>1150</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E179" s="2">
-        <v>2200</v>
+        <v>1150</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="2">
-        <v>7900</v>
+        <v>1150</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>387</v>
+        <v>306</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E181" s="2">
-        <v>2000</v>
+        <v>1150</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E182" s="2">
-        <v>1800</v>
+        <v>1150</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E183" s="2">
-        <v>1750</v>
+        <v>1150</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E184" s="2">
-        <v>1700</v>
+        <v>1150</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E185" s="2">
-        <v>1650</v>
+        <v>1150</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E186" s="2">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E187" s="2">
-        <v>1550</v>
+        <v>850</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E188" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>403</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E189" s="2">
-        <v>8000</v>
+        <v>750</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E190" s="2">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E191" s="2">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E192" s="2">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>413</v>
+        <v>317</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E193" s="2">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>403</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>414</v>
+        <v>318</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>415</v>
+        <v>319</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E194" s="2">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>403</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>416</v>
+        <v>320</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E195" s="2">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>403</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="E196" s="2">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>403</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="E197" s="2">
-        <v>1250</v>
+        <v>7000</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>403</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="E198" s="2">
-        <v>1200</v>
+        <v>7000</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>403</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="E199" s="2">
-        <v>1150</v>
+        <v>7000</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E200" s="2">
-        <v>6000</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E201" s="2">
-        <v>900</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E202" s="2">
-        <v>850</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E203" s="2">
-        <v>800</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E204" s="2">
-        <v>750</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E205" s="2">
-        <v>700</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E206" s="2">
-        <v>650</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E207" s="2">
-        <v>600</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E208" s="2">
-        <v>550</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E209" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/profiles/import/3_Liegenschaft.xlsx
+++ b/profiles/import/3_Liegenschaft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thor\JLUbox\Kuballa - Gebäudepläne im Netz\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLUmaps\jlu.standort-main\profiles\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="332">
   <si>
     <t>OBJ_ID</t>
   </si>
@@ -47,25 +47,706 @@
     <t>VORGAENGER-ID</t>
   </si>
   <si>
+    <t>167103</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 44</t>
+  </si>
+  <si>
+    <t>35394</t>
+  </si>
+  <si>
+    <t>Gießen</t>
+  </si>
+  <si>
+    <t>189854</t>
+  </si>
+  <si>
     <t>167104</t>
   </si>
   <si>
     <t>Alter Steinbacher Weg 38</t>
   </si>
   <si>
-    <t>35394</t>
-  </si>
-  <si>
-    <t>Gießen</t>
-  </si>
-  <si>
-    <t>189854</t>
-  </si>
-  <si>
-    <t>167103</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 44</t>
+    <t>167116</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 60/62</t>
+  </si>
+  <si>
+    <t>189855</t>
+  </si>
+  <si>
+    <t>167127</t>
+  </si>
+  <si>
+    <t>Arndtstraße 2</t>
+  </si>
+  <si>
+    <t>35392</t>
+  </si>
+  <si>
+    <t>189859</t>
+  </si>
+  <si>
+    <t>167136</t>
+  </si>
+  <si>
+    <t>Aulweg 121</t>
+  </si>
+  <si>
+    <t>189860</t>
+  </si>
+  <si>
+    <t>167149</t>
+  </si>
+  <si>
+    <t>Aulweg 123</t>
+  </si>
+  <si>
+    <t>167158</t>
+  </si>
+  <si>
+    <t>Aulweg 128</t>
+  </si>
+  <si>
+    <t>167166</t>
+  </si>
+  <si>
+    <t>Aulweg 129</t>
+  </si>
+  <si>
+    <t>167175</t>
+  </si>
+  <si>
+    <t>Aulweg 130</t>
+  </si>
+  <si>
+    <t>167181</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 16</t>
+  </si>
+  <si>
+    <t>35390</t>
+  </si>
+  <si>
+    <t>189852</t>
+  </si>
+  <si>
+    <t>167188</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 20</t>
+  </si>
+  <si>
+    <t>167196</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 22</t>
+  </si>
+  <si>
+    <t>167197</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 24</t>
+  </si>
+  <si>
+    <t>167210</t>
+  </si>
+  <si>
+    <t>Bismarckstraße 37</t>
+  </si>
+  <si>
+    <t>167239</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 85</t>
+  </si>
+  <si>
+    <t>189861</t>
+  </si>
+  <si>
+    <t>167240</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 87</t>
+  </si>
+  <si>
+    <t>167250</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 89</t>
+  </si>
+  <si>
+    <t>167261</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 91</t>
+  </si>
+  <si>
+    <t>167262</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 89A</t>
+  </si>
+  <si>
+    <t>167273</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 92</t>
+  </si>
+  <si>
+    <t>167280</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 94</t>
+  </si>
+  <si>
+    <t>167281</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 93</t>
+  </si>
+  <si>
+    <t>167292</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 96</t>
+  </si>
+  <si>
+    <t>167293</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 95</t>
+  </si>
+  <si>
+    <t>167307</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 98</t>
+  </si>
+  <si>
+    <t>167317</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 100</t>
+  </si>
+  <si>
+    <t>167318</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 98A</t>
+  </si>
+  <si>
+    <t>167328</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 102</t>
+  </si>
+  <si>
+    <t>167339</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 104/106</t>
+  </si>
+  <si>
+    <t>167346</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 107</t>
+  </si>
+  <si>
+    <t>167357</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 108</t>
+  </si>
+  <si>
+    <t>167365</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 110</t>
+  </si>
+  <si>
+    <t>167366</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 108B</t>
+  </si>
+  <si>
+    <t>167367</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 108A</t>
+  </si>
+  <si>
+    <t>167377</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 112</t>
+  </si>
+  <si>
+    <t>167384</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 114</t>
+  </si>
+  <si>
+    <t>167398</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 122</t>
+  </si>
+  <si>
+    <t>167400</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 122A</t>
+  </si>
+  <si>
+    <t>167401</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 120</t>
+  </si>
+  <si>
+    <t>167402</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 124</t>
+  </si>
+  <si>
+    <t>167417</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 126</t>
+  </si>
+  <si>
+    <t>167433</t>
+  </si>
+  <si>
+    <t>Friedrichstraße 24</t>
+  </si>
+  <si>
+    <t>167434</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 128</t>
+  </si>
+  <si>
+    <t>167456</t>
+  </si>
+  <si>
+    <t>Gaffkystraße 11</t>
+  </si>
+  <si>
+    <t>167465</t>
+  </si>
+  <si>
+    <t>Goethestraße 55</t>
+  </si>
+  <si>
+    <t>167473</t>
+  </si>
+  <si>
+    <t>Goethestraße 58</t>
+  </si>
+  <si>
+    <t>167483</t>
+  </si>
+  <si>
+    <t>Hein-Heckroth-Straße 3</t>
+  </si>
+  <si>
+    <t>167484</t>
+  </si>
+  <si>
+    <t>Gutenbergstraße 6</t>
+  </si>
+  <si>
+    <t>167492</t>
+  </si>
+  <si>
+    <t>Hein-Heckroth-Straße 3A</t>
+  </si>
+  <si>
+    <t>167493</t>
+  </si>
+  <si>
+    <t>Hein-Heckroth-Straße 5</t>
+  </si>
+  <si>
+    <t>167494</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 14</t>
+  </si>
+  <si>
+    <t>167510</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 16</t>
+  </si>
+  <si>
+    <t>167524</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 17</t>
+  </si>
+  <si>
+    <t>167544</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 19</t>
+  </si>
+  <si>
+    <t>167549</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 21</t>
+  </si>
+  <si>
+    <t>167550</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 20</t>
+  </si>
+  <si>
+    <t>167559</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 26</t>
+  </si>
+  <si>
+    <t>167560</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 25</t>
+  </si>
+  <si>
+    <t>167574</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 33</t>
+  </si>
+  <si>
+    <t>167575</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 29</t>
+  </si>
+  <si>
+    <t>167581</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 38</t>
+  </si>
+  <si>
+    <t>167583</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 35</t>
+  </si>
+  <si>
+    <t>167598</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 44</t>
+  </si>
+  <si>
+    <t>167605</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 54</t>
+  </si>
+  <si>
+    <t>167606</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 58</t>
+  </si>
+  <si>
+    <t>167627</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 62</t>
+  </si>
+  <si>
+    <t>167637</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 5A</t>
+  </si>
+  <si>
+    <t>167638</t>
+  </si>
+  <si>
+    <t>Iheringstraße 6</t>
+  </si>
+  <si>
+    <t>167646</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21A</t>
+  </si>
+  <si>
+    <t>167650</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21B</t>
+  </si>
+  <si>
+    <t>167654</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21C</t>
+  </si>
+  <si>
+    <t>167662</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21D</t>
+  </si>
+  <si>
+    <t>167663</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21E</t>
+  </si>
+  <si>
+    <t>167670</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21F</t>
+  </si>
+  <si>
+    <t>167675</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21G</t>
+  </si>
+  <si>
+    <t>167681</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21H</t>
+  </si>
+  <si>
+    <t>167686</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21J</t>
+  </si>
+  <si>
+    <t>167688</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21L</t>
+  </si>
+  <si>
+    <t>167696</t>
+  </si>
+  <si>
+    <t>Karl-Glöckner-Straße 21N</t>
+  </si>
+  <si>
+    <t>167697</t>
+  </si>
+  <si>
+    <t>Klinikstraße 29</t>
+  </si>
+  <si>
+    <t>167698</t>
+  </si>
+  <si>
+    <t>Kerkrader Straße 7</t>
+  </si>
+  <si>
+    <t>189862</t>
+  </si>
+  <si>
+    <t>167699</t>
+  </si>
+  <si>
+    <t>Kerkrader Straße 9</t>
+  </si>
+  <si>
+    <t>167711</t>
+  </si>
+  <si>
+    <t>Kugelberg 58</t>
+  </si>
+  <si>
+    <t>189856</t>
+  </si>
+  <si>
+    <t>167712</t>
+  </si>
+  <si>
+    <t>Kugelberg 62</t>
+  </si>
+  <si>
+    <t>167728</t>
+  </si>
+  <si>
+    <t>Launsbacher Weg 31</t>
+  </si>
+  <si>
+    <t>35398</t>
+  </si>
+  <si>
+    <t>167748</t>
+  </si>
+  <si>
+    <t>Leihgesterner Weg 52</t>
+  </si>
+  <si>
+    <t>167749</t>
+  </si>
+  <si>
+    <t>Leihgesterner Weg 125</t>
+  </si>
+  <si>
+    <t>167765</t>
+  </si>
+  <si>
+    <t>Leihgesterner Weg 217</t>
+  </si>
+  <si>
+    <t>167794</t>
+  </si>
+  <si>
+    <t>Licher Straße 60</t>
+  </si>
+  <si>
+    <t>189857</t>
+  </si>
+  <si>
+    <t>167795</t>
+  </si>
+  <si>
+    <t>Licher Straße 62</t>
+  </si>
+  <si>
+    <t>167806</t>
+  </si>
+  <si>
+    <t>Licher Straße 64</t>
+  </si>
+  <si>
+    <t>167812</t>
+  </si>
+  <si>
+    <t>Licher Straße 66</t>
+  </si>
+  <si>
+    <t>167813</t>
+  </si>
+  <si>
+    <t>Licher Straße 68</t>
+  </si>
+  <si>
+    <t>167826</t>
+  </si>
+  <si>
+    <t>Licher Straße 72</t>
+  </si>
+  <si>
+    <t>167827</t>
+  </si>
+  <si>
+    <t>Licher Straße 70</t>
+  </si>
+  <si>
+    <t>167837</t>
+  </si>
+  <si>
+    <t>Licher Straße 74</t>
+  </si>
+  <si>
+    <t>167838</t>
+  </si>
+  <si>
+    <t>Licher Straße 76</t>
+  </si>
+  <si>
+    <t>167856</t>
+  </si>
+  <si>
+    <t>Ludwigsplatz 13-15</t>
+  </si>
+  <si>
+    <t>167858</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 19</t>
+  </si>
+  <si>
+    <t>167872</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 21</t>
+  </si>
+  <si>
+    <t>167883</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 21A</t>
+  </si>
+  <si>
+    <t>167884</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 23</t>
+  </si>
+  <si>
+    <t>167903</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 34</t>
+  </si>
+  <si>
+    <t>167912</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 25</t>
+  </si>
+  <si>
+    <t>167914</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 18</t>
+  </si>
+  <si>
+    <t>167915</t>
+  </si>
+  <si>
+    <t>Oberer Hardthof 53</t>
+  </si>
+  <si>
+    <t>167935</t>
+  </si>
+  <si>
+    <t>Otto-Behaghel-Straße 8</t>
+  </si>
+  <si>
+    <t>167955</t>
+  </si>
+  <si>
+    <t>Otto-Behaghel-Straße 10</t>
+  </si>
+  <si>
+    <t>167998</t>
+  </si>
+  <si>
+    <t>Rathenaustraße 8</t>
+  </si>
+  <si>
+    <t>168013</t>
+  </si>
+  <si>
+    <t>Alter Steinbacher Weg 58</t>
   </si>
   <si>
     <t>168017</t>
@@ -74,19 +755,145 @@
     <t>Alter Steinbacher Weg 56</t>
   </si>
   <si>
-    <t>189855</t>
-  </si>
-  <si>
-    <t>168013</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 58</t>
-  </si>
-  <si>
-    <t>167116</t>
-  </si>
-  <si>
-    <t>Alter Steinbacher Weg 60/62</t>
+    <t>168022</t>
+  </si>
+  <si>
+    <t>Rudolf-Buchheim-Straße 2</t>
+  </si>
+  <si>
+    <t>168030</t>
+  </si>
+  <si>
+    <t>Rudolf-Buchheim-Straße 6</t>
+  </si>
+  <si>
+    <t>168042</t>
+  </si>
+  <si>
+    <t>Schiffenberger Weg 115</t>
+  </si>
+  <si>
+    <t>168043</t>
+  </si>
+  <si>
+    <t>Schiffenberger Weg 335</t>
+  </si>
+  <si>
+    <t>168044</t>
+  </si>
+  <si>
+    <t>Schloßgasse 7</t>
+  </si>
+  <si>
+    <t>189853</t>
+  </si>
+  <si>
+    <t>168057</t>
+  </si>
+  <si>
+    <t>Schubertstraße 81</t>
+  </si>
+  <si>
+    <t>168073</t>
+  </si>
+  <si>
+    <t>Senckenbergstraße 1</t>
+  </si>
+  <si>
+    <t>168074</t>
+  </si>
+  <si>
+    <t>Senckenbergstraße 3</t>
+  </si>
+  <si>
+    <t>168088</t>
+  </si>
+  <si>
+    <t>Senckenbergstraße 5</t>
+  </si>
+  <si>
+    <t>168101</t>
+  </si>
+  <si>
+    <t>Senckenbergstraße 17</t>
+  </si>
+  <si>
+    <t>168102</t>
+  </si>
+  <si>
+    <t>Senckenbergstraße 6</t>
+  </si>
+  <si>
+    <t>168134</t>
+  </si>
+  <si>
+    <t>Stephanstraße 24</t>
+  </si>
+  <si>
+    <t>168135</t>
+  </si>
+  <si>
+    <t>Wartweg 95</t>
+  </si>
+  <si>
+    <t>168146</t>
+  </si>
+  <si>
+    <t>Weilburger Grenze 25</t>
+  </si>
+  <si>
+    <t>168147</t>
+  </si>
+  <si>
+    <t>Wilhelmstraße 20</t>
+  </si>
+  <si>
+    <t>168148</t>
+  </si>
+  <si>
+    <t>Wilhelmstraße 16</t>
+  </si>
+  <si>
+    <t>168179</t>
+  </si>
+  <si>
+    <t>Winchesterstraße 2</t>
+  </si>
+  <si>
+    <t>35396</t>
+  </si>
+  <si>
+    <t>168188</t>
+  </si>
+  <si>
+    <t>Schloßpark 1 (Schlossbereich Rauischholzhausen)</t>
+  </si>
+  <si>
+    <t>35085</t>
+  </si>
+  <si>
+    <t>Ebsdorfergrund</t>
+  </si>
+  <si>
+    <t>189863</t>
+  </si>
+  <si>
+    <t>168196</t>
+  </si>
+  <si>
+    <t>Woogsdammweg 6 (Versuchsstation Groß-Gerau)</t>
+  </si>
+  <si>
+    <t>64521</t>
+  </si>
+  <si>
+    <t>Groß-Gerau</t>
+  </si>
+  <si>
+    <t>168229</t>
+  </si>
+  <si>
+    <t>Feulgenstraße 10-12</t>
   </si>
   <si>
     <t>168230</t>
@@ -101,52 +908,46 @@
     <t>Schotten</t>
   </si>
   <si>
-    <t>189863</t>
-  </si>
-  <si>
-    <t>167127</t>
-  </si>
-  <si>
-    <t>Arndtstraße 2</t>
-  </si>
-  <si>
-    <t>35392</t>
-  </si>
-  <si>
-    <t>189859</t>
-  </si>
-  <si>
-    <t>167136</t>
-  </si>
-  <si>
-    <t>Aulweg 121</t>
-  </si>
-  <si>
-    <t>189860</t>
-  </si>
-  <si>
-    <t>167149</t>
-  </si>
-  <si>
-    <t>Aulweg 123</t>
-  </si>
-  <si>
-    <t>167158</t>
-  </si>
-  <si>
-    <t>Aulweg 128</t>
-  </si>
-  <si>
-    <t>167166</t>
-  </si>
-  <si>
-    <t>Aulweg 129</t>
-  </si>
-  <si>
-    <t>167175</t>
-  </si>
-  <si>
-    <t>Aulweg 130</t>
+    <t>168258</t>
+  </si>
+  <si>
+    <t>Schlangenzahl 14</t>
+  </si>
+  <si>
+    <t>206043</t>
+  </si>
+  <si>
+    <t>Otto-Behaghel-Straße 12</t>
+  </si>
+  <si>
+    <t>498921</t>
+  </si>
+  <si>
+    <t>Klinikstraße 36</t>
+  </si>
+  <si>
+    <t>507427</t>
+  </si>
+  <si>
+    <t>Licher Straße 76B</t>
+  </si>
+  <si>
+    <t>511867</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 28</t>
+  </si>
+  <si>
+    <t>511868</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 30</t>
+  </si>
+  <si>
+    <t>511869</t>
+  </si>
+  <si>
+    <t>Heinrich-Buff-Ring 32</t>
   </si>
   <si>
     <t>512887</t>
@@ -155,355 +956,16 @@
     <t>Aulweg 132</t>
   </si>
   <si>
-    <t>167181</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 16</t>
-  </si>
-  <si>
-    <t>35390</t>
-  </si>
-  <si>
-    <t>189852</t>
-  </si>
-  <si>
-    <t>167188</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 20</t>
-  </si>
-  <si>
-    <t>167196</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 22</t>
-  </si>
-  <si>
-    <t>167197</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 24</t>
-  </si>
-  <si>
     <t>512889</t>
   </si>
   <si>
     <t>Bismarckstraße 24A</t>
   </si>
   <si>
-    <t>167210</t>
-  </si>
-  <si>
-    <t>Bismarckstraße 37</t>
-  </si>
-  <si>
-    <t>168229</t>
-  </si>
-  <si>
-    <t>Feulgenstraße 10-12</t>
-  </si>
-  <si>
-    <t>167317</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 100</t>
-  </si>
-  <si>
-    <t>189861</t>
-  </si>
-  <si>
-    <t>167328</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 102</t>
-  </si>
-  <si>
-    <t>167339</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 104/106</t>
-  </si>
-  <si>
-    <t>167346</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 107</t>
-  </si>
-  <si>
-    <t>167357</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 108</t>
-  </si>
-  <si>
-    <t>167367</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 108A</t>
-  </si>
-  <si>
-    <t>167366</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 108B</t>
-  </si>
-  <si>
-    <t>167365</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 110</t>
-  </si>
-  <si>
-    <t>167377</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 112</t>
-  </si>
-  <si>
-    <t>167384</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 114</t>
-  </si>
-  <si>
-    <t>167401</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 120</t>
-  </si>
-  <si>
-    <t>167399</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 120A</t>
-  </si>
-  <si>
-    <t>167398</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 122</t>
-  </si>
-  <si>
-    <t>167400</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 122A</t>
-  </si>
-  <si>
-    <t>167402</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 124</t>
-  </si>
-  <si>
-    <t>167417</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 126</t>
-  </si>
-  <si>
-    <t>167434</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 128</t>
-  </si>
-  <si>
-    <t>167239</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 85</t>
-  </si>
-  <si>
-    <t>167240</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 87</t>
-  </si>
-  <si>
-    <t>167250</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 89</t>
-  </si>
-  <si>
-    <t>167262</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 89A</t>
-  </si>
-  <si>
-    <t>167261</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 91</t>
-  </si>
-  <si>
-    <t>167273</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 92</t>
-  </si>
-  <si>
-    <t>167281</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 93</t>
-  </si>
-  <si>
-    <t>167280</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 94</t>
-  </si>
-  <si>
-    <t>167293</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 95</t>
-  </si>
-  <si>
-    <t>167292</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 96</t>
-  </si>
-  <si>
-    <t>167307</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 98</t>
-  </si>
-  <si>
-    <t>167318</t>
-  </si>
-  <si>
-    <t>Frankfurter Straße 98A</t>
-  </si>
-  <si>
-    <t>167433</t>
-  </si>
-  <si>
-    <t>Friedrichstraße 24</t>
-  </si>
-  <si>
-    <t>167456</t>
-  </si>
-  <si>
-    <t>Gaffkystraße 11</t>
-  </si>
-  <si>
-    <t>167465</t>
-  </si>
-  <si>
-    <t>Goethestraße 55</t>
-  </si>
-  <si>
-    <t>167473</t>
-  </si>
-  <si>
-    <t>Goethestraße 58</t>
-  </si>
-  <si>
-    <t>167484</t>
-  </si>
-  <si>
-    <t>Gutenbergstraße 6</t>
-  </si>
-  <si>
-    <t>167483</t>
-  </si>
-  <si>
-    <t>Hein-Heckroth-Straße 3</t>
-  </si>
-  <si>
-    <t>167492</t>
-  </si>
-  <si>
-    <t>Hein-Heckroth-Straße 3A</t>
-  </si>
-  <si>
-    <t>167493</t>
-  </si>
-  <si>
-    <t>Hein-Heckroth-Straße 5</t>
-  </si>
-  <si>
-    <t>167494</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 14</t>
-  </si>
-  <si>
-    <t>167510</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 16</t>
-  </si>
-  <si>
-    <t>167524</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 17</t>
-  </si>
-  <si>
-    <t>167544</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 19</t>
-  </si>
-  <si>
-    <t>167550</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 20</t>
-  </si>
-  <si>
-    <t>167549</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 21</t>
-  </si>
-  <si>
-    <t>167560</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 25</t>
-  </si>
-  <si>
-    <t>167559</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 26</t>
-  </si>
-  <si>
-    <t>511867</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 28</t>
-  </si>
-  <si>
-    <t>167575</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 29</t>
-  </si>
-  <si>
-    <t>511868</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 30</t>
-  </si>
-  <si>
-    <t>511869</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 32</t>
-  </si>
-  <si>
-    <t>167574</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 33</t>
+    <t>520338</t>
+  </si>
+  <si>
+    <t>Südanlage 30</t>
   </si>
   <si>
     <t>528007</t>
@@ -512,294 +974,6 @@
     <t>Heinrich-Buff-Ring 34</t>
   </si>
   <si>
-    <t>167583</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 35</t>
-  </si>
-  <si>
-    <t>167581</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 38</t>
-  </si>
-  <si>
-    <t>167598</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 44</t>
-  </si>
-  <si>
-    <t>167605</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 54</t>
-  </si>
-  <si>
-    <t>167606</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 58</t>
-  </si>
-  <si>
-    <t>167627</t>
-  </si>
-  <si>
-    <t>Heinrich-Buff-Ring 62</t>
-  </si>
-  <si>
-    <t>167638</t>
-  </si>
-  <si>
-    <t>Iheringstraße 6</t>
-  </si>
-  <si>
-    <t>167646</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21A</t>
-  </si>
-  <si>
-    <t>167650</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21B</t>
-  </si>
-  <si>
-    <t>167654</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21C</t>
-  </si>
-  <si>
-    <t>167662</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21D</t>
-  </si>
-  <si>
-    <t>167663</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21E</t>
-  </si>
-  <si>
-    <t>167670</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21F</t>
-  </si>
-  <si>
-    <t>167675</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21G</t>
-  </si>
-  <si>
-    <t>167681</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21H</t>
-  </si>
-  <si>
-    <t>167686</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21J</t>
-  </si>
-  <si>
-    <t>167688</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21L</t>
-  </si>
-  <si>
-    <t>167696</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 21N</t>
-  </si>
-  <si>
-    <t>167637</t>
-  </si>
-  <si>
-    <t>Karl-Glöckner-Straße 5A</t>
-  </si>
-  <si>
-    <t>167698</t>
-  </si>
-  <si>
-    <t>Kerkrader Straße 7</t>
-  </si>
-  <si>
-    <t>189862</t>
-  </si>
-  <si>
-    <t>167699</t>
-  </si>
-  <si>
-    <t>Kerkrader Straße 9</t>
-  </si>
-  <si>
-    <t>167697</t>
-  </si>
-  <si>
-    <t>Klinikstraße 29</t>
-  </si>
-  <si>
-    <t>498921</t>
-  </si>
-  <si>
-    <t>Klinikstraße 36</t>
-  </si>
-  <si>
-    <t>167711</t>
-  </si>
-  <si>
-    <t>Kugelberg 58</t>
-  </si>
-  <si>
-    <t>189856</t>
-  </si>
-  <si>
-    <t>167712</t>
-  </si>
-  <si>
-    <t>Kugelberg 62</t>
-  </si>
-  <si>
-    <t>167728</t>
-  </si>
-  <si>
-    <t>Launsbacher Weg 31</t>
-  </si>
-  <si>
-    <t>35398</t>
-  </si>
-  <si>
-    <t>167749</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 125</t>
-  </si>
-  <si>
-    <t>167765</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 217</t>
-  </si>
-  <si>
-    <t>167748</t>
-  </si>
-  <si>
-    <t>Leihgesterner Weg 52</t>
-  </si>
-  <si>
-    <t>167794</t>
-  </si>
-  <si>
-    <t>Licher Straße 60</t>
-  </si>
-  <si>
-    <t>189857</t>
-  </si>
-  <si>
-    <t>167795</t>
-  </si>
-  <si>
-    <t>Licher Straße 62</t>
-  </si>
-  <si>
-    <t>167806</t>
-  </si>
-  <si>
-    <t>Licher Straße 64</t>
-  </si>
-  <si>
-    <t>167812</t>
-  </si>
-  <si>
-    <t>Licher Straße 66</t>
-  </si>
-  <si>
-    <t>167813</t>
-  </si>
-  <si>
-    <t>Licher Straße 68</t>
-  </si>
-  <si>
-    <t>167827</t>
-  </si>
-  <si>
-    <t>Licher Straße 70</t>
-  </si>
-  <si>
-    <t>167826</t>
-  </si>
-  <si>
-    <t>Licher Straße 72</t>
-  </si>
-  <si>
-    <t>167837</t>
-  </si>
-  <si>
-    <t>Licher Straße 74</t>
-  </si>
-  <si>
-    <t>167838</t>
-  </si>
-  <si>
-    <t>Licher Straße 76</t>
-  </si>
-  <si>
-    <t>507427</t>
-  </si>
-  <si>
-    <t>Licher Straße 76B</t>
-  </si>
-  <si>
-    <t>167856</t>
-  </si>
-  <si>
-    <t>Ludwigsplatz 13-15</t>
-  </si>
-  <si>
-    <t>167858</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 19</t>
-  </si>
-  <si>
-    <t>167872</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 21</t>
-  </si>
-  <si>
-    <t>167883</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 21A</t>
-  </si>
-  <si>
-    <t>167884</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 23</t>
-  </si>
-  <si>
-    <t>167903</t>
-  </si>
-  <si>
-    <t>Ludwigstraße 34</t>
-  </si>
-  <si>
-    <t>167914</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 18</t>
-  </si>
-  <si>
     <t>534710</t>
   </si>
   <si>
@@ -812,12 +986,6 @@
     <t>Oberer Hardthof 37</t>
   </si>
   <si>
-    <t>167915</t>
-  </si>
-  <si>
-    <t>Oberer Hardthof 53</t>
-  </si>
-  <si>
     <t>534719</t>
   </si>
   <si>
@@ -836,178 +1004,25 @@
     <t>Oberer Hardthof 65</t>
   </si>
   <si>
-    <t>167955</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 10</t>
-  </si>
-  <si>
-    <t>206043</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 12</t>
-  </si>
-  <si>
-    <t>167935</t>
-  </si>
-  <si>
-    <t>Otto-Behaghel-Straße 8</t>
-  </si>
-  <si>
-    <t>167998</t>
-  </si>
-  <si>
-    <t>Rathenaustraße 8</t>
-  </si>
-  <si>
-    <t>168022</t>
-  </si>
-  <si>
-    <t>Rudolf-Buchheim-Straße 2</t>
-  </si>
-  <si>
-    <t>168030</t>
-  </si>
-  <si>
-    <t>Rudolf-Buchheim-Straße 6</t>
-  </si>
-  <si>
-    <t>168042</t>
-  </si>
-  <si>
-    <t>Schiffenberger Weg 115</t>
-  </si>
-  <si>
-    <t>168043</t>
-  </si>
-  <si>
-    <t>Schiffenberger Weg 335</t>
-  </si>
-  <si>
-    <t>168258</t>
-  </si>
-  <si>
-    <t>Schlangenzahl 14</t>
-  </si>
-  <si>
-    <t>168044</t>
-  </si>
-  <si>
-    <t>Schloßgasse 7</t>
-  </si>
-  <si>
-    <t>189853</t>
-  </si>
-  <si>
-    <t>168188</t>
-  </si>
-  <si>
-    <t>Schloßpark 1 (Schlossbereich Rauischholzhausen)</t>
-  </si>
-  <si>
-    <t>35085</t>
-  </si>
-  <si>
-    <t>Ebsdorfergrund</t>
-  </si>
-  <si>
-    <t>168057</t>
-  </si>
-  <si>
-    <t>Schubertstraße 81</t>
-  </si>
-  <si>
     <t>544268</t>
   </si>
   <si>
     <t>Seltersweg 87</t>
   </si>
   <si>
-    <t>168073</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 1</t>
-  </si>
-  <si>
-    <t>168101</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 17</t>
-  </si>
-  <si>
-    <t>168074</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 3</t>
-  </si>
-  <si>
-    <t>168088</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 5</t>
-  </si>
-  <si>
-    <t>168102</t>
-  </si>
-  <si>
-    <t>Senckenbergstraße 6</t>
-  </si>
-  <si>
-    <t>168134</t>
-  </si>
-  <si>
-    <t>Stephanstraße 24</t>
-  </si>
-  <si>
-    <t>520338</t>
-  </si>
-  <si>
-    <t>Südanlage 30</t>
-  </si>
-  <si>
-    <t>168135</t>
-  </si>
-  <si>
-    <t>Wartweg 95</t>
-  </si>
-  <si>
-    <t>168146</t>
-  </si>
-  <si>
-    <t>Weilburger Grenze 25</t>
-  </si>
-  <si>
-    <t>168148</t>
-  </si>
-  <si>
-    <t>Wilhelmstraße 16</t>
-  </si>
-  <si>
-    <t>168147</t>
-  </si>
-  <si>
-    <t>Wilhelmstraße 20</t>
-  </si>
-  <si>
-    <t>168179</t>
-  </si>
-  <si>
-    <t>Winchesterstraße 2</t>
-  </si>
-  <si>
-    <t>35396</t>
-  </si>
-  <si>
-    <t>168196</t>
-  </si>
-  <si>
-    <t>Woogsdammweg 6 (Versuchsstation Groß-Gerau)</t>
-  </si>
-  <si>
-    <t>64521</t>
-  </si>
-  <si>
-    <t>Groß-Gerau</t>
+    <t>555987</t>
+  </si>
+  <si>
+    <t>Liebigstraße 35</t>
+  </si>
+  <si>
+    <t>Benekestraße 2-8</t>
+  </si>
+  <si>
+    <t>Bad Nauheim</t>
+  </si>
+  <si>
+    <t>574991</t>
   </si>
 </sst>
 </file>
@@ -1337,9 +1352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1385,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>9950</v>
+        <v>9900</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1405,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>9900</v>
+        <v>9950</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1425,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1439,56 +1456,56 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>9900</v>
+        <v>9050</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8950</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,36 +1516,36 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>9050</v>
+        <v>8900</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>9050</v>
+        <v>8850</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,133 +1556,133 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>8950</v>
+        <v>8550</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8500</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8900</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>8850</v>
+        <v>8450</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>8750</v>
+        <v>8400</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2">
-        <v>8650</v>
+        <v>8300</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2">
-        <v>8550</v>
+        <v>8200</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>45</v>
@@ -1679,13 +1696,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2">
-        <v>8500</v>
+        <v>8150</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>45</v>
@@ -1699,13 +1716,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2">
-        <v>8450</v>
+        <v>8100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>45</v>
@@ -1719,13 +1736,13 @@
         <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="2">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>45</v>
@@ -1739,13 +1756,13 @@
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2">
-        <v>8350</v>
+        <v>8050</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>45</v>
@@ -1759,13 +1776,13 @@
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="2">
-        <v>8300</v>
+        <v>7950</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>45</v>
@@ -1773,19 +1790,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="2">
-        <v>8300</v>
+        <v>7850</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>45</v>
@@ -1793,1350 +1810,1350 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="2">
-        <v>8250</v>
+        <v>7900</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="2">
-        <v>7600</v>
+        <v>7750</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="2">
-        <v>7550</v>
+        <v>7800</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2">
-        <v>7450</v>
+        <v>7700</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>7350</v>
+        <v>7650</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2">
-        <v>7300</v>
+        <v>7550</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="2">
-        <v>7250</v>
+        <v>7450</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="2">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="2">
-        <v>7150</v>
+        <v>7350</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="2">
-        <v>7150</v>
+        <v>7200</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>7100</v>
+        <v>7250</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>7050</v>
+        <v>7300</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="2">
-        <v>7000</v>
+        <v>7150</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="2">
-        <v>6950</v>
+        <v>7100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="2">
-        <v>6900</v>
+        <v>6950</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="2">
-        <v>6850</v>
+        <v>6900</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="2">
-        <v>6800</v>
+        <v>7050</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="2">
-        <v>6800</v>
+        <v>6850</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="2">
-        <v>6750</v>
+        <v>6800</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="2">
-        <v>8200</v>
+        <v>6700</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="2">
-        <v>8150</v>
+        <v>6750</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>8150</v>
+        <v>6650</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="2">
-        <v>8100</v>
+        <v>6550</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="2">
-        <v>8100</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="2">
-        <v>8050</v>
+        <v>6350</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="2">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="2">
-        <v>7950</v>
+        <v>6300</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="2">
-        <v>7900</v>
+        <v>6250</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="2">
-        <v>7850</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="2">
-        <v>7800</v>
+        <v>6150</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="2">
-        <v>7800</v>
+        <v>6050</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="2">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="2">
-        <v>7700</v>
+        <v>5900</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="2">
-        <v>7700</v>
+        <v>5950</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="2">
-        <v>7650</v>
+        <v>5800</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="2">
-        <v>6700</v>
+        <v>5850</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="2">
-        <v>6650</v>
+        <v>5500</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="2">
-        <v>6650</v>
+        <v>5650</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="2">
-        <v>6550</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="2">
-        <v>6500</v>
+        <v>5400</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="2">
-        <v>6400</v>
+        <v>5250</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="2">
-        <v>6350</v>
+        <v>5150</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>6300</v>
+        <v>5100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="2">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="2">
-        <v>6200</v>
+        <v>4850</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="2">
-        <v>6150</v>
+        <v>4950</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="2">
-        <v>6050</v>
+        <v>4800</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="2">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="2">
-        <v>5950</v>
+        <v>4700</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="2">
-        <v>5900</v>
+        <v>4650</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="2">
-        <v>5850</v>
+        <v>4600</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="2">
-        <v>5800</v>
+        <v>4550</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="2">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="2">
-        <v>5650</v>
+        <v>4450</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="2">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="2">
-        <v>5550</v>
+        <v>4350</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="2">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="2">
-        <v>5450</v>
+        <v>4100</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="2">
-        <v>5450</v>
+        <v>4200</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="2">
-        <v>5400</v>
+        <v>4150</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="2">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="2">
-        <v>5250</v>
+        <v>3950</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="2">
-        <v>5150</v>
+        <v>3900</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="2">
-        <v>5100</v>
+        <v>3850</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="2">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="2">
-        <v>4950</v>
+        <v>3700</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
@@ -3145,18 +3162,18 @@
         <v>9</v>
       </c>
       <c r="E90" s="2">
-        <v>4800</v>
+        <v>3650</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
@@ -3165,18 +3182,18 @@
         <v>9</v>
       </c>
       <c r="E91" s="2">
-        <v>4750</v>
+        <v>3600</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
@@ -3185,18 +3202,18 @@
         <v>9</v>
       </c>
       <c r="E92" s="2">
-        <v>4700</v>
+        <v>3550</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
@@ -3205,18 +3222,18 @@
         <v>9</v>
       </c>
       <c r="E93" s="2">
-        <v>4650</v>
+        <v>3500</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
@@ -3225,18 +3242,18 @@
         <v>9</v>
       </c>
       <c r="E94" s="2">
-        <v>4600</v>
+        <v>3450</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
@@ -3245,18 +3262,18 @@
         <v>9</v>
       </c>
       <c r="E95" s="2">
-        <v>4550</v>
+        <v>3350</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
@@ -3265,18 +3282,18 @@
         <v>9</v>
       </c>
       <c r="E96" s="2">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
@@ -3285,18 +3302,18 @@
         <v>9</v>
       </c>
       <c r="E97" s="2">
-        <v>4450</v>
+        <v>3300</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
@@ -3305,198 +3322,198 @@
         <v>9</v>
       </c>
       <c r="E98" s="2">
-        <v>4400</v>
+        <v>3250</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="2">
-        <v>4350</v>
+        <v>3100</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="2">
-        <v>4250</v>
+        <v>3050</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="2">
-        <v>4850</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="2">
-        <v>4200</v>
+        <v>2950</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="2">
-        <v>4150</v>
+        <v>2900</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="2">
-        <v>4100</v>
+        <v>2850</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="2">
-        <v>4050</v>
+        <v>2650</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="2">
-        <v>4000</v>
+        <v>2850</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>8</v>
@@ -3505,18 +3522,18 @@
         <v>9</v>
       </c>
       <c r="E108" s="2">
-        <v>3950</v>
+        <v>2200</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
@@ -3525,18 +3542,18 @@
         <v>9</v>
       </c>
       <c r="E109" s="2">
-        <v>3950</v>
+        <v>2150</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
@@ -3545,18 +3562,18 @@
         <v>9</v>
       </c>
       <c r="E110" s="2">
-        <v>3950</v>
+        <v>2000</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
@@ -3565,18 +3582,18 @@
         <v>9</v>
       </c>
       <c r="E111" s="2">
-        <v>3950</v>
+        <v>9900</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
@@ -3585,58 +3602,58 @@
         <v>9</v>
       </c>
       <c r="E112" s="2">
-        <v>3950</v>
+        <v>10000</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="2">
-        <v>3950</v>
+        <v>1800</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="2">
-        <v>3950</v>
+        <v>1700</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
@@ -3645,18 +3662,18 @@
         <v>9</v>
       </c>
       <c r="E115" s="2">
-        <v>3950</v>
+        <v>1650</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>8</v>
@@ -3665,378 +3682,378 @@
         <v>9</v>
       </c>
       <c r="E116" s="2">
-        <v>3950</v>
+        <v>1600</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="2">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="2">
-        <v>3900</v>
+        <v>1400</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="2">
-        <v>3900</v>
+        <v>1300</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="2">
-        <v>3800</v>
+        <v>1250</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="2">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="2">
-        <v>3700</v>
+        <v>1100</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="2">
-        <v>3700</v>
+        <v>1150</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="2">
-        <v>3700</v>
+        <v>900</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="2">
-        <v>3850</v>
+        <v>800</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="2">
-        <v>3650</v>
+        <v>750</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="2">
-        <v>3600</v>
+        <v>600</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="2">
-        <v>3550</v>
+        <v>650</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="2">
-        <v>3500</v>
+        <v>550</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="E130" s="2">
-        <v>3450</v>
+        <v>8000</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>9</v>
+        <v>286</v>
       </c>
       <c r="E131" s="2">
-        <v>3450</v>
+        <v>7000</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="2">
-        <v>3400</v>
+        <v>8250</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="E133" s="2">
-        <v>3350</v>
+        <v>5000</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="2">
-        <v>3300</v>
+        <v>1550</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
@@ -4045,38 +4062,38 @@
         <v>9</v>
       </c>
       <c r="E135" s="2">
-        <v>3250</v>
+        <v>2100</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="2">
-        <v>3150</v>
+        <v>4050</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>8</v>
@@ -4088,158 +4105,158 @@
         <v>3150</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="2">
-        <v>3100</v>
+        <v>5750</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="2">
-        <v>3050</v>
+        <v>5600</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="2">
-        <v>3000</v>
+        <v>5550</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="2">
-        <v>2950</v>
+        <v>8650</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="2">
-        <v>2900</v>
+        <v>8350</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="2">
-        <v>2850</v>
+        <v>850</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="2">
-        <v>2850</v>
+        <v>5450</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>9</v>
@@ -4248,18 +4265,18 @@
         <v>2750</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>9</v>
@@ -4268,1067 +4285,127 @@
         <v>2350</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="2">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="2">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="2">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="2">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="2">
-        <v>2150</v>
+        <v>3800</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>329</v>
+      </c>
+      <c r="C152">
+        <v>61231</v>
+      </c>
+      <c r="D152" t="s">
+        <v>330</v>
       </c>
       <c r="E152" s="2">
-        <v>2150</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="2">
-        <v>2150</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" s="2">
-        <v>2150</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="2">
-        <v>2150</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="2">
-        <v>2150</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="2">
-        <v>2150</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="2">
-        <v>2100</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="2">
-        <v>2200</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="2">
-        <v>1800</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="2">
-        <v>1700</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1650</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1600</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1550</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E167" s="2">
-        <v>8000</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E168" s="2">
-        <v>8000</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E169" s="2">
-        <v>8000</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E170" s="2">
-        <v>8000</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E171" s="2">
-        <v>8000</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="2">
-        <v>1400</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="2">
         <v>1000</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="2">
-        <v>1300</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="2">
-        <v>1100</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="2">
-        <v>1250</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="2">
-        <v>900</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="2">
-        <v>850</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="2">
-        <v>800</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="2">
-        <v>750</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="2">
-        <v>750</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="2">
-        <v>750</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="2">
-        <v>750</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" s="2">
-        <v>650</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="2">
-        <v>600</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="2">
-        <v>550</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E196" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E197" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E198" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E199" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>24</v>
+      <c r="F152">
+        <v>574990</v>
       </c>
     </row>
   </sheetData>
